--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8A53F-A14A-9A44-A72D-70CE623CE06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109E5D4-2683-D940-98E9-5AA90B8ABECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3400" windowWidth="30100" windowHeight="17440" activeTab="1" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
+    <workbookView xWindow="-36840" yWindow="-1120" windowWidth="30100" windowHeight="17440" activeTab="3" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="yelp2018" sheetId="1" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4783F72-20B2-4C46-90AB-3E0AD2E56D5A}">
   <dimension ref="B10:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC211E7F-F5C9-684D-B440-9FEA88489976}">
   <dimension ref="E9:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="N182" sqref="N182"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
